--- a/Technician_Schedule_Form.xlsx
+++ b/Technician_Schedule_Form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/briannaorr/Documents/GitHub/SWE4103_Group2_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4133040-DAF3-4B4F-A412-B3FE9AF9007C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A2E2A1-F6FB-9C48-8AF7-0CDCE9433A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F31DC12-7DFE-47E1-86A8-ADF28DFD034D}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="14340" windowHeight="15840" xr2:uid="{6F31DC12-7DFE-47E1-86A8-ADF28DFD034D}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="4" r:id="rId1"/>
@@ -66,7 +66,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,12 +106,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,37 +432,38 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -475,8 +482,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="B3" t="s">
@@ -495,8 +502,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="B4" t="s">
@@ -515,8 +522,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>0.125</v>
       </c>
       <c r="B5" t="s">
@@ -535,8 +542,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>0.16666666666666699</v>
       </c>
       <c r="B6" t="s">
@@ -555,8 +562,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>0.20833333333333301</v>
       </c>
       <c r="B7" t="s">
@@ -575,8 +582,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>0.25</v>
       </c>
       <c r="B8" t="s">
@@ -595,8 +602,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>0.29166666666666702</v>
       </c>
       <c r="B9" t="s">
@@ -615,8 +622,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>0.33333333333333298</v>
       </c>
       <c r="B10" t="s">
@@ -635,8 +642,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>0.375</v>
       </c>
       <c r="B11" t="s">
@@ -655,8 +662,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>0.41666666666666702</v>
       </c>
       <c r="B12" t="s">
@@ -675,8 +682,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>0.45833333333333298</v>
       </c>
       <c r="B13" t="s">
@@ -695,8 +702,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>0.5</v>
       </c>
       <c r="B14" t="s">
@@ -715,8 +722,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>0.54166666666666696</v>
       </c>
       <c r="B15" t="s">
@@ -735,8 +742,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>0.58333333333333304</v>
       </c>
       <c r="B16" t="s">
@@ -755,8 +762,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>0.625</v>
       </c>
       <c r="B17" t="s">
@@ -775,8 +782,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>0.66666666666666696</v>
       </c>
       <c r="B18" t="s">
@@ -789,14 +796,14 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>0.70833333333333304</v>
       </c>
       <c r="B19" t="s">
@@ -809,14 +816,14 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>0.75</v>
       </c>
       <c r="B20" t="s">
@@ -835,8 +842,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>0.79166666666666696</v>
       </c>
       <c r="B21" t="s">
@@ -855,8 +862,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>0.83333333333333304</v>
       </c>
       <c r="B22" t="s">
@@ -875,8 +882,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>0.875</v>
       </c>
       <c r="B23" t="s">
@@ -895,8 +902,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>0.91666666666666696</v>
       </c>
       <c r="B24" t="s">
@@ -915,8 +922,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>0.95833333333333304</v>
       </c>
       <c r="B25" t="s">
